--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Sema3g-Nrp2.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Sema3g-Nrp2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,22 +79,22 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Sema3g</t>
   </si>
   <si>
     <t>Nrp2</t>
   </si>
   <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
     <t>M2</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>13.4814671821821</v>
+        <v>13.486082</v>
       </c>
       <c r="H2">
-        <v>13.4814671821821</v>
+        <v>40.458246</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.9315468716293712</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.9315468716293713</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>54.6972304867492</v>
+        <v>55.56529466666667</v>
       </c>
       <c r="N2">
-        <v>54.6972304867492</v>
+        <v>166.695884</v>
       </c>
       <c r="O2">
-        <v>0.4259172202448373</v>
+        <v>0.424029640296873</v>
       </c>
       <c r="P2">
-        <v>0.4259172202448373</v>
+        <v>0.4240296402968731</v>
       </c>
       <c r="Q2">
-        <v>737.3989177633596</v>
+        <v>749.3581202288294</v>
       </c>
       <c r="R2">
-        <v>737.3989177633596</v>
+        <v>6744.223082059465</v>
       </c>
       <c r="S2">
-        <v>0.4259172202448373</v>
+        <v>0.3950034848966796</v>
       </c>
       <c r="T2">
-        <v>0.4259172202448373</v>
+        <v>0.3950034848966797</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>13.4814671821821</v>
+        <v>13.486082</v>
       </c>
       <c r="H3">
-        <v>13.4814671821821</v>
+        <v>40.458246</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.9315468716293712</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.9315468716293713</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>10.8039332891305</v>
+        <v>10.84181733333333</v>
       </c>
       <c r="N3">
-        <v>10.8039332891305</v>
+        <v>32.525452</v>
       </c>
       <c r="O3">
-        <v>0.08412823086777477</v>
+        <v>0.08273603031526086</v>
       </c>
       <c r="P3">
-        <v>0.08412823086777477</v>
+        <v>0.08273603031526089</v>
       </c>
       <c r="Q3">
-        <v>145.6528720758976</v>
+        <v>146.2136375863547</v>
       </c>
       <c r="R3">
-        <v>145.6528720758976</v>
+        <v>1315.922738277192</v>
       </c>
       <c r="S3">
-        <v>0.08412823086777477</v>
+        <v>0.07707249021121408</v>
       </c>
       <c r="T3">
-        <v>0.08412823086777477</v>
+        <v>0.07707249021121411</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>13.4814671821821</v>
+        <v>13.486082</v>
       </c>
       <c r="H4">
-        <v>13.4814671821821</v>
+        <v>40.458246</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.9315468716293712</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.9315468716293713</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>39.8695375459458</v>
+        <v>40.13853466666666</v>
       </c>
       <c r="N4">
-        <v>39.8695375459458</v>
+        <v>120.415604</v>
       </c>
       <c r="O4">
-        <v>0.3104567169654085</v>
+        <v>0.3063050150071534</v>
       </c>
       <c r="P4">
-        <v>0.3104567169654085</v>
+        <v>0.3063050150071535</v>
       </c>
       <c r="Q4">
-        <v>537.4998619944455</v>
+        <v>541.3115698745094</v>
       </c>
       <c r="R4">
-        <v>537.4998619944455</v>
+        <v>4871.804128870584</v>
       </c>
       <c r="S4">
-        <v>0.3104567169654085</v>
+        <v>0.2853374784943014</v>
       </c>
       <c r="T4">
-        <v>0.3104567169654085</v>
+        <v>0.2853374784943015</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>13.4814671821821</v>
+        <v>13.486082</v>
       </c>
       <c r="H5">
-        <v>13.4814671821821</v>
+        <v>40.458246</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.9315468716293712</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.9315468716293713</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>20.8993781078458</v>
+        <v>21.88776266666666</v>
       </c>
       <c r="N5">
-        <v>20.8993781078458</v>
+        <v>65.66328799999999</v>
       </c>
       <c r="O5">
-        <v>0.1627395930164311</v>
+        <v>0.167029801355803</v>
       </c>
       <c r="P5">
-        <v>0.1627395930164311</v>
+        <v>0.167029801355803</v>
       </c>
       <c r="Q5">
-        <v>281.7542800889382</v>
+        <v>295.1801621192053</v>
       </c>
       <c r="R5">
-        <v>281.7542800889382</v>
+        <v>2656.621459072848</v>
       </c>
       <c r="S5">
-        <v>0.1627395930164311</v>
+        <v>0.1555960889218736</v>
       </c>
       <c r="T5">
-        <v>0.1627395930164311</v>
+        <v>0.1555960889218736</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,991 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>13.486082</v>
+      </c>
+      <c r="H6">
+        <v>40.458246</v>
+      </c>
+      <c r="I6">
+        <v>0.9315468716293712</v>
+      </c>
+      <c r="J6">
+        <v>0.9315468716293713</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>2.607653333333333</v>
+      </c>
+      <c r="N6">
+        <v>7.82296</v>
+      </c>
+      <c r="O6">
+        <v>0.01989951302490964</v>
+      </c>
+      <c r="P6">
+        <v>0.01989951302490964</v>
+      </c>
+      <c r="Q6">
+        <v>35.16702668090667</v>
+      </c>
+      <c r="R6">
+        <v>316.50324012816</v>
+      </c>
+      <c r="S6">
+        <v>0.0185373291053025</v>
+      </c>
+      <c r="T6">
+        <v>0.0185373291053025</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.138056</v>
+      </c>
+      <c r="H7">
+        <v>0.414168</v>
+      </c>
+      <c r="I7">
+        <v>0.009536174769637648</v>
+      </c>
+      <c r="J7">
+        <v>0.009536174769637652</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>55.56529466666667</v>
+      </c>
+      <c r="N7">
+        <v>166.695884</v>
+      </c>
+      <c r="O7">
+        <v>0.424029640296873</v>
+      </c>
+      <c r="P7">
+        <v>0.4240296402968731</v>
+      </c>
+      <c r="Q7">
+        <v>7.671122320501333</v>
+      </c>
+      <c r="R7">
+        <v>69.040100884512</v>
+      </c>
+      <c r="S7">
+        <v>0.004043620757377568</v>
+      </c>
+      <c r="T7">
+        <v>0.004043620757377571</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.138056</v>
+      </c>
+      <c r="H8">
+        <v>0.414168</v>
+      </c>
+      <c r="I8">
+        <v>0.009536174769637648</v>
+      </c>
+      <c r="J8">
+        <v>0.009536174769637652</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>10.84181733333333</v>
+      </c>
+      <c r="N8">
+        <v>32.525452</v>
+      </c>
+      <c r="O8">
+        <v>0.08273603031526086</v>
+      </c>
+      <c r="P8">
+        <v>0.08273603031526089</v>
+      </c>
+      <c r="Q8">
+        <v>1.496777933770666</v>
+      </c>
+      <c r="R8">
+        <v>13.471001403936</v>
+      </c>
+      <c r="S8">
+        <v>0.0007889852448323663</v>
+      </c>
+      <c r="T8">
+        <v>0.0007889852448323668</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.138056</v>
+      </c>
+      <c r="H9">
+        <v>0.414168</v>
+      </c>
+      <c r="I9">
+        <v>0.009536174769637648</v>
+      </c>
+      <c r="J9">
+        <v>0.009536174769637652</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>40.13853466666666</v>
+      </c>
+      <c r="N9">
+        <v>120.415604</v>
+      </c>
+      <c r="O9">
+        <v>0.3063050150071534</v>
+      </c>
+      <c r="P9">
+        <v>0.3063050150071535</v>
+      </c>
+      <c r="Q9">
+        <v>5.541365541941333</v>
+      </c>
+      <c r="R9">
+        <v>49.872289877472</v>
+      </c>
+      <c r="S9">
+        <v>0.002920978155924697</v>
+      </c>
+      <c r="T9">
+        <v>0.002920978155924699</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>26</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>13.4814671821821</v>
-      </c>
-      <c r="H6">
-        <v>13.4814671821821</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>2.1521300675325</v>
-      </c>
-      <c r="N6">
-        <v>2.1521300675325</v>
-      </c>
-      <c r="O6">
-        <v>0.01675823890554818</v>
-      </c>
-      <c r="P6">
-        <v>0.01675823890554818</v>
-      </c>
-      <c r="Q6">
-        <v>29.01387087722675</v>
-      </c>
-      <c r="R6">
-        <v>29.01387087722675</v>
-      </c>
-      <c r="S6">
-        <v>0.01675823890554818</v>
-      </c>
-      <c r="T6">
-        <v>0.01675823890554818</v>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.138056</v>
+      </c>
+      <c r="H10">
+        <v>0.414168</v>
+      </c>
+      <c r="I10">
+        <v>0.009536174769637648</v>
+      </c>
+      <c r="J10">
+        <v>0.009536174769637652</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>21.88776266666666</v>
+      </c>
+      <c r="N10">
+        <v>65.66328799999999</v>
+      </c>
+      <c r="O10">
+        <v>0.167029801355803</v>
+      </c>
+      <c r="P10">
+        <v>0.167029801355803</v>
+      </c>
+      <c r="Q10">
+        <v>3.021736962709332</v>
+      </c>
+      <c r="R10">
+        <v>27.195632664384</v>
+      </c>
+      <c r="S10">
+        <v>0.001592825377466797</v>
+      </c>
+      <c r="T10">
+        <v>0.001592825377466797</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.138056</v>
+      </c>
+      <c r="H11">
+        <v>0.414168</v>
+      </c>
+      <c r="I11">
+        <v>0.009536174769637648</v>
+      </c>
+      <c r="J11">
+        <v>0.009536174769637652</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>2.607653333333333</v>
+      </c>
+      <c r="N11">
+        <v>7.82296</v>
+      </c>
+      <c r="O11">
+        <v>0.01989951302490964</v>
+      </c>
+      <c r="P11">
+        <v>0.01989951302490964</v>
+      </c>
+      <c r="Q11">
+        <v>0.3600021885866666</v>
+      </c>
+      <c r="R11">
+        <v>3.24001969728</v>
+      </c>
+      <c r="S11">
+        <v>0.0001897652340362191</v>
+      </c>
+      <c r="T11">
+        <v>0.0001897652340362191</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.01226766666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.036803</v>
+      </c>
+      <c r="I12">
+        <v>0.0008473852157746964</v>
+      </c>
+      <c r="J12">
+        <v>0.0008473852157746966</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>55.56529466666667</v>
+      </c>
+      <c r="N12">
+        <v>166.695884</v>
+      </c>
+      <c r="O12">
+        <v>0.424029640296873</v>
+      </c>
+      <c r="P12">
+        <v>0.4240296402968731</v>
+      </c>
+      <c r="Q12">
+        <v>0.6816565132057778</v>
+      </c>
+      <c r="R12">
+        <v>6.134908618852001</v>
+      </c>
+      <c r="S12">
+        <v>0.0003593164482378326</v>
+      </c>
+      <c r="T12">
+        <v>0.0003593164482378328</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.01226766666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.036803</v>
+      </c>
+      <c r="I13">
+        <v>0.0008473852157746964</v>
+      </c>
+      <c r="J13">
+        <v>0.0008473852157746966</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>10.84181733333333</v>
+      </c>
+      <c r="N13">
+        <v>32.525452</v>
+      </c>
+      <c r="O13">
+        <v>0.08273603031526086</v>
+      </c>
+      <c r="P13">
+        <v>0.08273603031526089</v>
+      </c>
+      <c r="Q13">
+        <v>0.1330038011062222</v>
+      </c>
+      <c r="R13">
+        <v>1.197034209956</v>
+      </c>
+      <c r="S13">
+        <v>7.010928890103915E-05</v>
+      </c>
+      <c r="T13">
+        <v>7.010928890103919E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.01226766666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.036803</v>
+      </c>
+      <c r="I14">
+        <v>0.0008473852157746964</v>
+      </c>
+      <c r="J14">
+        <v>0.0008473852157746966</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>40.13853466666666</v>
+      </c>
+      <c r="N14">
+        <v>120.415604</v>
+      </c>
+      <c r="O14">
+        <v>0.3063050150071534</v>
+      </c>
+      <c r="P14">
+        <v>0.3063050150071535</v>
+      </c>
+      <c r="Q14">
+        <v>0.4924061637791112</v>
+      </c>
+      <c r="R14">
+        <v>4.431655474012</v>
+      </c>
+      <c r="S14">
+        <v>0.0002595583412347083</v>
+      </c>
+      <c r="T14">
+        <v>0.0002595583412347084</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.01226766666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.036803</v>
+      </c>
+      <c r="I15">
+        <v>0.0008473852157746964</v>
+      </c>
+      <c r="J15">
+        <v>0.0008473852157746966</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>21.88776266666666</v>
+      </c>
+      <c r="N15">
+        <v>65.66328799999999</v>
+      </c>
+      <c r="O15">
+        <v>0.167029801355803</v>
+      </c>
+      <c r="P15">
+        <v>0.167029801355803</v>
+      </c>
+      <c r="Q15">
+        <v>0.2685117764737778</v>
+      </c>
+      <c r="R15">
+        <v>2.416605988264</v>
+      </c>
+      <c r="S15">
+        <v>0.0001415385842626918</v>
+      </c>
+      <c r="T15">
+        <v>0.0001415385842626918</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.01226766666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.036803</v>
+      </c>
+      <c r="I16">
+        <v>0.0008473852157746964</v>
+      </c>
+      <c r="J16">
+        <v>0.0008473852157746966</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>2.607653333333333</v>
+      </c>
+      <c r="N16">
+        <v>7.82296</v>
+      </c>
+      <c r="O16">
+        <v>0.01989951302490964</v>
+      </c>
+      <c r="P16">
+        <v>0.01989951302490964</v>
+      </c>
+      <c r="Q16">
+        <v>0.03198982187555556</v>
+      </c>
+      <c r="R16">
+        <v>0.28790839688</v>
+      </c>
+      <c r="S16">
+        <v>1.686255313842443E-05</v>
+      </c>
+      <c r="T16">
+        <v>1.686255313842444E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.840678</v>
+      </c>
+      <c r="H17">
+        <v>2.522034</v>
+      </c>
+      <c r="I17">
+        <v>0.05806956838521644</v>
+      </c>
+      <c r="J17">
+        <v>0.05806956838521645</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>55.56529466666667</v>
+      </c>
+      <c r="N17">
+        <v>166.695884</v>
+      </c>
+      <c r="O17">
+        <v>0.424029640296873</v>
+      </c>
+      <c r="P17">
+        <v>0.4240296402968731</v>
+      </c>
+      <c r="Q17">
+        <v>46.712520789784</v>
+      </c>
+      <c r="R17">
+        <v>420.412687108056</v>
+      </c>
+      <c r="S17">
+        <v>0.02462321819457799</v>
+      </c>
+      <c r="T17">
+        <v>0.02462321819457801</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.840678</v>
+      </c>
+      <c r="H18">
+        <v>2.522034</v>
+      </c>
+      <c r="I18">
+        <v>0.05806956838521644</v>
+      </c>
+      <c r="J18">
+        <v>0.05806956838521645</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>10.84181733333333</v>
+      </c>
+      <c r="N18">
+        <v>32.525452</v>
+      </c>
+      <c r="O18">
+        <v>0.08273603031526086</v>
+      </c>
+      <c r="P18">
+        <v>0.08273603031526089</v>
+      </c>
+      <c r="Q18">
+        <v>9.114477312152001</v>
+      </c>
+      <c r="R18">
+        <v>82.03029580936801</v>
+      </c>
+      <c r="S18">
+        <v>0.004804445570313381</v>
+      </c>
+      <c r="T18">
+        <v>0.004804445570313383</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.840678</v>
+      </c>
+      <c r="H19">
+        <v>2.522034</v>
+      </c>
+      <c r="I19">
+        <v>0.05806956838521644</v>
+      </c>
+      <c r="J19">
+        <v>0.05806956838521645</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>40.13853466666666</v>
+      </c>
+      <c r="N19">
+        <v>120.415604</v>
+      </c>
+      <c r="O19">
+        <v>0.3063050150071534</v>
+      </c>
+      <c r="P19">
+        <v>0.3063050150071535</v>
+      </c>
+      <c r="Q19">
+        <v>33.743583046504</v>
+      </c>
+      <c r="R19">
+        <v>303.692247418536</v>
+      </c>
+      <c r="S19">
+        <v>0.01778700001569264</v>
+      </c>
+      <c r="T19">
+        <v>0.01778700001569265</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.840678</v>
+      </c>
+      <c r="H20">
+        <v>2.522034</v>
+      </c>
+      <c r="I20">
+        <v>0.05806956838521644</v>
+      </c>
+      <c r="J20">
+        <v>0.05806956838521645</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>21.88776266666666</v>
+      </c>
+      <c r="N20">
+        <v>65.66328799999999</v>
+      </c>
+      <c r="O20">
+        <v>0.167029801355803</v>
+      </c>
+      <c r="P20">
+        <v>0.167029801355803</v>
+      </c>
+      <c r="Q20">
+        <v>18.400560543088</v>
+      </c>
+      <c r="R20">
+        <v>165.605044887792</v>
+      </c>
+      <c r="S20">
+        <v>0.009699348472199918</v>
+      </c>
+      <c r="T20">
+        <v>0.009699348472199922</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.840678</v>
+      </c>
+      <c r="H21">
+        <v>2.522034</v>
+      </c>
+      <c r="I21">
+        <v>0.05806956838521644</v>
+      </c>
+      <c r="J21">
+        <v>0.05806956838521645</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>2.607653333333333</v>
+      </c>
+      <c r="N21">
+        <v>7.82296</v>
+      </c>
+      <c r="O21">
+        <v>0.01989951302490964</v>
+      </c>
+      <c r="P21">
+        <v>0.01989951302490964</v>
+      </c>
+      <c r="Q21">
+        <v>2.19219678896</v>
+      </c>
+      <c r="R21">
+        <v>19.72977110064</v>
+      </c>
+      <c r="S21">
+        <v>0.001155556132432495</v>
+      </c>
+      <c r="T21">
+        <v>0.001155556132432496</v>
       </c>
     </row>
   </sheetData>
